--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_경부선.xlsx
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1265204344724.609</v>
+        <v>1265204340980.375</v>
       </c>
       <c r="C3">
-        <v>1124813.026562463</v>
+        <v>1124813.024898083</v>
       </c>
       <c r="D3">
-        <v>0.03119797079218252</v>
+        <v>0.03119797006019349</v>
       </c>
       <c r="E3">
-        <v>555402.5208333334</v>
+        <v>555402.4166666666</v>
       </c>
       <c r="F3">
-        <v>0.1146408633210836</v>
+        <v>0.1146408305612186</v>
       </c>
       <c r="G3">
-        <v>255666</v>
+        <v>255665.75</v>
       </c>
       <c r="H3">
-        <v>0.07476639059260509</v>
+        <v>0.07476631481086633</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1033,7 +1033,7 @@
         <v>3186083.75</v>
       </c>
       <c r="E4">
-        <v>3152500.25</v>
+        <v>3152500.5</v>
       </c>
       <c r="F4">
         <v>3050349</v>
@@ -1086,7 +1086,7 @@
         <v>3169345.25</v>
       </c>
       <c r="E5">
-        <v>3152500.5</v>
+        <v>3152501</v>
       </c>
       <c r="F5">
         <v>3180677.5</v>
@@ -1139,7 +1139,7 @@
         <v>3189311.5</v>
       </c>
       <c r="E6">
-        <v>3152500.75</v>
+        <v>3152501.5</v>
       </c>
       <c r="F6">
         <v>3014767.5</v>
@@ -1192,7 +1192,7 @@
         <v>3298762.75</v>
       </c>
       <c r="E7">
-        <v>3152501.5</v>
+        <v>3152502</v>
       </c>
       <c r="F7">
         <v>3202956</v>
@@ -1298,7 +1298,7 @@
         <v>3385911</v>
       </c>
       <c r="E9">
-        <v>3152502</v>
+        <v>3152501.75</v>
       </c>
       <c r="F9">
         <v>3410940.75</v>
@@ -1351,7 +1351,7 @@
         <v>3357167.25</v>
       </c>
       <c r="E10">
-        <v>3152502</v>
+        <v>3152502.25</v>
       </c>
       <c r="F10">
         <v>3343561.5</v>
@@ -1404,7 +1404,7 @@
         <v>3326395.75</v>
       </c>
       <c r="E11">
-        <v>3152502</v>
+        <v>3152502.5</v>
       </c>
       <c r="F11">
         <v>2965860.5</v>
@@ -1457,7 +1457,7 @@
         <v>3274700</v>
       </c>
       <c r="E12">
-        <v>3152502.25</v>
+        <v>3152502</v>
       </c>
       <c r="F12">
         <v>3162613</v>
@@ -1510,7 +1510,7 @@
         <v>3403701.5</v>
       </c>
       <c r="E13">
-        <v>3152502.75</v>
+        <v>3152501.75</v>
       </c>
       <c r="F13">
         <v>2943271.25</v>
@@ -1563,7 +1563,7 @@
         <v>3526623</v>
       </c>
       <c r="E14">
-        <v>3152502.5</v>
+        <v>3152502.25</v>
       </c>
       <c r="F14">
         <v>3060048.75</v>
@@ -1616,7 +1616,7 @@
         <v>3611019</v>
       </c>
       <c r="E15">
-        <v>3152502</v>
+        <v>3152502.5</v>
       </c>
       <c r="F15">
         <v>3367644.5</v>
@@ -1669,7 +1669,7 @@
         <v>3573648.5</v>
       </c>
       <c r="E16">
-        <v>3152502</v>
+        <v>3152502.25</v>
       </c>
       <c r="F16">
         <v>3218099</v>
@@ -1722,7 +1722,7 @@
         <v>3660756.75</v>
       </c>
       <c r="E17">
-        <v>3152501.5</v>
+        <v>3152502</v>
       </c>
       <c r="F17">
         <v>3030124.75</v>
@@ -1775,7 +1775,7 @@
         <v>3604046.75</v>
       </c>
       <c r="E18">
-        <v>3152502</v>
+        <v>3152502.25</v>
       </c>
       <c r="F18">
         <v>3015422.25</v>
@@ -1828,7 +1828,7 @@
         <v>3650265.25</v>
       </c>
       <c r="E19">
-        <v>3152502.75</v>
+        <v>3152502.25</v>
       </c>
       <c r="F19">
         <v>2988883.25</v>
@@ -1881,7 +1881,7 @@
         <v>3759440.5</v>
       </c>
       <c r="E20">
-        <v>3152501.75</v>
+        <v>3152502.5</v>
       </c>
       <c r="F20">
         <v>3245488.25</v>
@@ -1934,7 +1934,7 @@
         <v>3788538.5</v>
       </c>
       <c r="E21">
-        <v>3152501</v>
+        <v>3152502.25</v>
       </c>
       <c r="F21">
         <v>3111347.5</v>
@@ -1987,7 +1987,7 @@
         <v>3839723</v>
       </c>
       <c r="E22">
-        <v>3152501.25</v>
+        <v>3152502</v>
       </c>
       <c r="F22">
         <v>3275268.5</v>
@@ -2040,7 +2040,7 @@
         <v>3808182.75</v>
       </c>
       <c r="E23">
-        <v>3152501.75</v>
+        <v>3152502</v>
       </c>
       <c r="F23">
         <v>3052940.75</v>
@@ -2146,7 +2146,7 @@
         <v>3918111.25</v>
       </c>
       <c r="E25">
-        <v>3152501.25</v>
+        <v>3152500.75</v>
       </c>
       <c r="F25">
         <v>1757311</v>
@@ -2199,7 +2199,7 @@
         <v>4008163</v>
       </c>
       <c r="E26">
-        <v>3152507.25</v>
+        <v>3152501.25</v>
       </c>
       <c r="F26">
         <v>2044267</v>
@@ -2252,7 +2252,7 @@
         <v>4007408</v>
       </c>
       <c r="E27">
-        <v>3152515.5</v>
+        <v>3152502</v>
       </c>
       <c r="F27">
         <v>2354871</v>
@@ -2305,7 +2305,7 @@
         <v>4037032.5</v>
       </c>
       <c r="E28">
-        <v>3152518</v>
+        <v>3152502.25</v>
       </c>
       <c r="F28">
         <v>2535241.25</v>
@@ -2358,7 +2358,7 @@
         <v>4060179.25</v>
       </c>
       <c r="E29">
-        <v>3152518.75</v>
+        <v>3152502</v>
       </c>
       <c r="F29">
         <v>2556284.5</v>
@@ -2411,7 +2411,7 @@
         <v>4097172.25</v>
       </c>
       <c r="E30">
-        <v>3152518.25</v>
+        <v>3152502</v>
       </c>
       <c r="F30">
         <v>2892802.25</v>
@@ -2464,7 +2464,7 @@
         <v>4099446.75</v>
       </c>
       <c r="E31">
-        <v>3152517.25</v>
+        <v>3152502</v>
       </c>
       <c r="F31">
         <v>2086352.375</v>
@@ -2517,7 +2517,7 @@
         <v>4081235</v>
       </c>
       <c r="E32">
-        <v>3152517.25</v>
+        <v>3152501.75</v>
       </c>
       <c r="F32">
         <v>2768211</v>
@@ -2570,7 +2570,7 @@
         <v>4114394.75</v>
       </c>
       <c r="E33">
-        <v>3152517.75</v>
+        <v>3152501.25</v>
       </c>
       <c r="F33">
         <v>2819592.25</v>
@@ -2623,7 +2623,7 @@
         <v>4202335.5</v>
       </c>
       <c r="E34">
-        <v>3152518</v>
+        <v>3152501</v>
       </c>
       <c r="F34">
         <v>2206129.5</v>
@@ -3015,25 +3015,25 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>4976139191618.203</v>
+        <v>5429687664230.489</v>
       </c>
       <c r="C14">
-        <v>2230726.157917686</v>
+        <v>2330169.020528444</v>
       </c>
       <c r="D14">
-        <v>1.670653450185595</v>
+        <v>1.734344794480522</v>
       </c>
       <c r="E14">
-        <v>1961436.604166667</v>
+        <v>2090503.053385417</v>
       </c>
       <c r="F14">
-        <v>1.110598704985794</v>
+        <v>1.164901831135615</v>
       </c>
       <c r="G14">
-        <v>1908883.875</v>
+        <v>2281564.125</v>
       </c>
       <c r="H14">
-        <v>0.9971441225650963</v>
+        <v>1.260554472008177</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3175,7 +3175,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P2">
-        <v>5755242.5</v>
+        <v>5525334.5</v>
       </c>
       <c r="Q2">
         <v>6841545</v>
@@ -3228,7 +3228,7 @@
         <v>1235633.837670139</v>
       </c>
       <c r="P3">
-        <v>4659381.5</v>
+        <v>5525330</v>
       </c>
       <c r="Q3">
         <v>-7156669</v>
@@ -3281,7 +3281,7 @@
         <v>1430026.011222554</v>
       </c>
       <c r="P4">
-        <v>2325754.25</v>
+        <v>5212037</v>
       </c>
       <c r="Q4">
         <v>1782819</v>
@@ -3334,7 +3334,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P5">
-        <v>1888998.25</v>
+        <v>4495918.5</v>
       </c>
       <c r="Q5">
         <v>-22982858</v>
@@ -3387,7 +3387,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P6">
-        <v>4216731.5</v>
+        <v>3779788.25</v>
       </c>
       <c r="Q6">
         <v>-5624222.5</v>
@@ -3440,7 +3440,7 @@
         <v>1505980.484778641</v>
       </c>
       <c r="P7">
-        <v>5219158.5</v>
+        <v>3063669</v>
       </c>
       <c r="Q7">
         <v>458287.5</v>
@@ -3493,7 +3493,7 @@
         <v>1430026.011222554</v>
       </c>
       <c r="P8">
-        <v>3684987.25</v>
+        <v>2307522.5</v>
       </c>
       <c r="Q8">
         <v>8964313</v>
@@ -3546,7 +3546,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P9">
-        <v>2767230</v>
+        <v>1463327.125</v>
       </c>
       <c r="Q9">
         <v>7857252.5</v>
@@ -3599,7 +3599,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P10">
-        <v>3460972</v>
+        <v>619134.75</v>
       </c>
       <c r="Q10">
         <v>9880277</v>
@@ -3652,7 +3652,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P11">
-        <v>3999322</v>
+        <v>-225059.328125</v>
       </c>
       <c r="Q11">
         <v>9322751</v>
@@ -3705,7 +3705,7 @@
         <v>1235633.837670139</v>
       </c>
       <c r="P12">
-        <v>3984131</v>
+        <v>-885267</v>
       </c>
       <c r="Q12">
         <v>8224925.5</v>
@@ -3758,7 +3758,7 @@
         <v>1505980.484778641</v>
       </c>
       <c r="P13">
-        <v>3965902.5</v>
+        <v>-748116.4375</v>
       </c>
       <c r="Q13">
         <v>-29097776</v>
@@ -3811,7 +3811,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P14">
-        <v>3897659.25</v>
+        <v>-610989.1875</v>
       </c>
       <c r="Q14">
         <v>-13558821</v>
@@ -3864,7 +3864,7 @@
         <v>1357112.014799315</v>
       </c>
       <c r="P15">
-        <v>3633034.75</v>
+        <v>-473842.21875</v>
       </c>
       <c r="Q15">
         <v>11437883</v>
@@ -3917,7 +3917,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P16">
-        <v>1469577.875</v>
+        <v>-329380.53125</v>
       </c>
       <c r="Q16">
         <v>-27280610</v>
@@ -3970,7 +3970,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P17">
-        <v>-662956.125</v>
+        <v>-74821.7734375</v>
       </c>
       <c r="Q17">
         <v>26875498</v>
@@ -4023,7 +4023,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P18">
-        <v>-1794278</v>
+        <v>179730.65625</v>
       </c>
       <c r="Q18">
         <v>8046869</v>
@@ -4076,7 +4076,7 @@
         <v>1430026.011222554</v>
       </c>
       <c r="P19">
-        <v>-2925599.75</v>
+        <v>434287.96875</v>
       </c>
       <c r="Q19">
         <v>-20636708</v>
@@ -4129,7 +4129,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P20">
-        <v>-146.4075012207031</v>
+        <v>688842</v>
       </c>
       <c r="Q20">
         <v>75854240</v>
@@ -4182,7 +4182,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P21">
-        <v>3066652.5</v>
+        <v>804401.4375</v>
       </c>
       <c r="Q21">
         <v>94693184</v>
@@ -4235,7 +4235,7 @@
         <v>1430026.011222554</v>
       </c>
       <c r="P22">
-        <v>3272575.75</v>
+        <v>910695.5625</v>
       </c>
       <c r="Q22">
         <v>71228328</v>
@@ -4288,7 +4288,7 @@
         <v>1430026.011222554</v>
       </c>
       <c r="P23">
-        <v>3182487.25</v>
+        <v>1016996.4375</v>
       </c>
       <c r="Q23">
         <v>80643512</v>
@@ -4341,7 +4341,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P24">
-        <v>1949970.75</v>
+        <v>1123288.625</v>
       </c>
       <c r="Q24">
         <v>77911320</v>
@@ -4394,7 +4394,7 @@
         <v>1505980.484778641</v>
       </c>
       <c r="P25">
-        <v>503236.9375</v>
+        <v>1249098.75</v>
       </c>
       <c r="Q25">
         <v>86174936</v>
@@ -4447,7 +4447,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P26">
-        <v>-916824.1875</v>
+        <v>1379346.875</v>
       </c>
       <c r="Q26">
         <v>98695368</v>
@@ -4500,7 +4500,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P27">
-        <v>-2329241.75</v>
+        <v>1509584.375</v>
       </c>
       <c r="Q27">
         <v>82349008</v>
@@ -4553,7 +4553,7 @@
         <v>1357112.014799315</v>
       </c>
       <c r="P28">
-        <v>-902240.625</v>
+        <v>1639830.25</v>
       </c>
       <c r="Q28">
         <v>72016864</v>
@@ -4606,7 +4606,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P29">
-        <v>1639683.875</v>
+        <v>1424579.875</v>
       </c>
       <c r="Q29">
         <v>86760872</v>
@@ -4659,7 +4659,7 @@
         <v>1505980.484778641</v>
       </c>
       <c r="P30">
-        <v>3777031.5</v>
+        <v>1052294.875</v>
       </c>
       <c r="Q30">
         <v>55034808</v>
@@ -4712,7 +4712,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P31">
-        <v>5701614.5</v>
+        <v>680076.5625</v>
       </c>
       <c r="Q31">
         <v>78570952</v>
@@ -4765,7 +4765,7 @@
         <v>1357112.014799315</v>
       </c>
       <c r="P32">
-        <v>12671723</v>
+        <v>307789.34375</v>
       </c>
       <c r="Q32">
         <v>124557400</v>
@@ -4818,7 +4818,7 @@
         <v>1585893.393873661</v>
       </c>
       <c r="P33">
-        <v>23089350</v>
+        <v>144960.078125</v>
       </c>
       <c r="Q33">
         <v>130749320</v>
@@ -4871,7 +4871,7 @@
         <v>1296976.770405408</v>
       </c>
       <c r="P34">
-        <v>27970832</v>
+        <v>144969.390625</v>
       </c>
       <c r="Q34">
         <v>270904832</v>
@@ -5256,25 +5256,25 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>53317821354777.03</v>
+        <v>26508359507915.62</v>
       </c>
       <c r="C15">
-        <v>7301905.323597194</v>
+        <v>5148626.953656249</v>
       </c>
       <c r="D15">
-        <v>17.89363811735603</v>
+        <v>8.937396051041043</v>
       </c>
       <c r="E15">
-        <v>6206383.552083333</v>
+        <v>4269297.3984375</v>
       </c>
       <c r="F15">
-        <v>3.565499271705472</v>
+        <v>2.45516413038995</v>
       </c>
       <c r="G15">
-        <v>6492927.5</v>
+        <v>3318915.984375</v>
       </c>
       <c r="H15">
-        <v>3.777459099377136</v>
+        <v>1.872279597652367</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5393,7 @@
         <v>-230283.671875</v>
       </c>
       <c r="Q2">
-        <v>9605149</v>
+        <v>-860101.0625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5446,7 +5446,7 @@
         <v>-1988878.5</v>
       </c>
       <c r="Q3">
-        <v>9605149</v>
+        <v>355153.53125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5499,7 +5499,7 @@
         <v>1144208.875</v>
       </c>
       <c r="Q4">
-        <v>8675723</v>
+        <v>2947696.25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5552,7 +5552,7 @@
         <v>-2478484.5</v>
       </c>
       <c r="Q5">
-        <v>6551320</v>
+        <v>4191189.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5605,7 +5605,7 @@
         <v>-238028.1875</v>
       </c>
       <c r="Q6">
-        <v>4426916</v>
+        <v>3462997.25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5658,7 +5658,7 @@
         <v>-1720805.375</v>
       </c>
       <c r="Q7">
-        <v>2302512.5</v>
+        <v>4854447.5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5711,7 +5711,7 @@
         <v>-352761.28125</v>
       </c>
       <c r="Q8">
-        <v>2034185.625</v>
+        <v>10292484</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5764,7 +5764,7 @@
         <v>378053.71875</v>
       </c>
       <c r="Q9">
-        <v>5849222.5</v>
+        <v>12610880</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5817,7 +5817,7 @@
         <v>-291259.5</v>
       </c>
       <c r="Q10">
-        <v>9664258</v>
+        <v>6956868.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5870,7 +5870,7 @@
         <v>-1886393.375</v>
       </c>
       <c r="Q11">
-        <v>13479294</v>
+        <v>3172526.25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5923,7 +5923,7 @@
         <v>363229.09375</v>
       </c>
       <c r="Q12">
-        <v>15382984</v>
+        <v>6065554</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5976,7 +5976,7 @@
         <v>-171823.8125</v>
       </c>
       <c r="Q13">
-        <v>9004164</v>
+        <v>7978339</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6029,7 +6029,7 @@
         <v>490736.4375</v>
       </c>
       <c r="Q14">
-        <v>2625356</v>
+        <v>4597816.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6082,7 +6082,7 @@
         <v>-517661.34375</v>
       </c>
       <c r="Q15">
-        <v>-3753464.25</v>
+        <v>1390747.875</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6135,7 +6135,7 @@
         <v>-731774.875</v>
       </c>
       <c r="Q16">
-        <v>-9526220</v>
+        <v>-139544.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6188,7 +6188,7 @@
         <v>-404856.90625</v>
       </c>
       <c r="Q17">
-        <v>-6208196.5</v>
+        <v>-1525295.625</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6241,7 +6241,7 @@
         <v>504303.0625</v>
       </c>
       <c r="Q18">
-        <v>-2890177.75</v>
+        <v>1569694</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6294,7 +6294,7 @@
         <v>-2437550.5</v>
       </c>
       <c r="Q19">
-        <v>427847.84375</v>
+        <v>4664689.5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6347,7 +6347,7 @@
         <v>219622.140625</v>
       </c>
       <c r="Q20">
-        <v>3745864</v>
+        <v>1880768.625</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6400,7 +6400,7 @@
         <v>1276217.375</v>
       </c>
       <c r="Q21">
-        <v>5068172.5</v>
+        <v>-1092794.25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6453,7 +6453,7 @@
         <v>-1393320.125</v>
       </c>
       <c r="Q22">
-        <v>6257431</v>
+        <v>153998.609375</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6506,7 +6506,7 @@
         <v>-1519798.375</v>
       </c>
       <c r="Q23">
-        <v>7446692</v>
+        <v>1837377.75</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6559,7 +6559,7 @@
         <v>-686889.3125</v>
       </c>
       <c r="Q24">
-        <v>8635951</v>
+        <v>1163234.625</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6612,7 +6612,7 @@
         <v>-859781.25</v>
       </c>
       <c r="Q25">
-        <v>6907168.5</v>
+        <v>52515.2109375</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6665,7 +6665,7 @@
         <v>1936102.75</v>
       </c>
       <c r="Q26">
-        <v>4504998.5</v>
+        <v>19825670</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6718,7 +6718,7 @@
         <v>578937.625</v>
       </c>
       <c r="Q27">
-        <v>2102823.5</v>
+        <v>45446332</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6771,7 +6771,7 @@
         <v>45221.66015625</v>
       </c>
       <c r="Q28">
-        <v>-299346.53125</v>
+        <v>55405468</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6824,7 +6824,7 @@
         <v>3649840</v>
       </c>
       <c r="Q29">
-        <v>15567789</v>
+        <v>59236240</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6877,7 +6877,7 @@
         <v>6965079</v>
       </c>
       <c r="Q30">
-        <v>39739084</v>
+        <v>59521700</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6930,7 +6930,7 @@
         <v>9243377</v>
       </c>
       <c r="Q31">
-        <v>63910424</v>
+        <v>57950096</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6983,7 +6983,7 @@
         <v>20208116</v>
       </c>
       <c r="Q32">
-        <v>88081712</v>
+        <v>54525360</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7036,7 +7036,7 @@
         <v>33548888</v>
       </c>
       <c r="Q33">
-        <v>98656656</v>
+        <v>49832680</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7089,7 +7089,7 @@
         <v>56131876</v>
       </c>
       <c r="Q34">
-        <v>98656656</v>
+        <v>47632996</v>
       </c>
     </row>
   </sheetData>
